--- a/datasets/deepImage-96-euclidean-true-labels.xlsx
+++ b/datasets/deepImage-96-euclidean-true-labels.xlsx
@@ -576,7 +576,7 @@
  0.5816 0.5929 0.5939 0.5966 0.5995 0.6021 0.603  0.6083 0.6127 0.613
  0.614  0.615  0.6171 0.6208 0.6219 0.622  0.6227 0.624  0.6241 0.6255
  0.626  0.6283 0.6292 0.6297 0.6301 0.6304 0.6313 0.6324 0.6331 0.6332
- 0.6333 0.6349 0.6354 0.6361 0.6389 0.6393 0.6402 0.6403 0.6406 0.6414
+ 0.6333 0.6349 0.6354 0.6361 0.6389 0.6393 0.6402 0.6404 0.6406 0.6414
  0.6424 0.6428 0.6434 0.6436 0.6444 0.6449 0.6449 0.6458 0.6459 0.6476
  0.6485 0.6486 0.6488 0.6493 0.6498 0.6502 0.6511 0.6512 0.6513 0.6515
  0.6523 0.6523 0.6526 0.6527 0.6549 0.6557 0.6559 0.656  0.6561 0.6562
@@ -931,7 +931,7 @@
  0.5406 0.5406 0.5409 0.5414 0.5418 0.5419 0.542  0.5427 0.5429 0.543
  0.5432 0.5437 0.5441 0.5441 0.5441 0.5457 0.546  0.546  0.5461 0.5461
  0.5462 0.5472 0.5474 0.5475 0.5477 0.5481 0.5481 0.5491 0.5495 0.5496
- 0.5501 0.5503 0.5509 0.5511 0.5521 0.5522 0.5525 0.5525 0.5528 0.5531]</t>
+ 0.5501 0.5503 0.5509 0.5511 0.5521 0.5522 0.5525 0.5526 0.5528 0.5531]</t>
         </is>
       </c>
     </row>
@@ -3724,7 +3724,7 @@
         <is>
           <t>[0.8879 0.8998 0.9011 0.9071 0.916  0.9165 0.9357 0.9366 0.9367 0.9373
  0.94   0.9426 0.943  0.9455 0.9468 0.9486 0.9486 0.949  0.9495 0.9502
- 0.9506 0.9525 0.9532 0.9536 0.9538 0.9541 0.9549 0.9553 0.9555 0.9556
+ 0.9506 0.9526 0.9532 0.9536 0.9538 0.9541 0.9549 0.9553 0.9555 0.9556
  0.9564 0.9565 0.9571 0.9572 0.9596 0.9605 0.9611 0.9629 0.964  0.9641
  0.9647 0.9654 0.966  0.9669 0.9672 0.9674 0.9674 0.9676 0.9676 0.968
  0.968  0.9683 0.9697 0.9698 0.9706 0.9707 0.9708 0.9716 0.9717 0.9718
@@ -3934,7 +3934,7 @@
         <is>
           <t>[0.4518 0.4587 0.469  0.479  0.4807 0.4846 0.4876 0.4892 0.4927 0.4951
  0.4979 0.5013 0.5016 0.5018 0.5024 0.5071 0.5122 0.5125 0.5146 0.5155
- 0.5192 0.522  0.522  0.522  0.5225 0.5232 0.5235 0.5235 0.5243 0.5261
+ 0.5192 0.5219 0.522  0.522  0.5225 0.5232 0.5235 0.5235 0.5243 0.5261
  0.5262 0.5266 0.5267 0.5275 0.5277 0.5287 0.529  0.5291 0.5291 0.5293
  0.5294 0.5296 0.531  0.5318 0.5323 0.5326 0.5333 0.534  0.5343 0.5344
  0.5347 0.5351 0.5351 0.5358 0.5361 0.5364 0.5369 0.5379 0.538  0.5384
@@ -5877,16 +5877,16 @@
       <c r="B157" t="inlineStr">
         <is>
           <t>[6899022 8876543 3330817 4050870 8678202 9595689 3136765 4390042 4869374
- 7161766  573069 8800876 3532583 5029765 9732232 2792600 3786364 6737687
+ 7161766  573069 8800876 3532583 5029765 9732232 3786364 2792600 6737687
  4529162 7168356 1836958 1986107 9433583 9833897 8500559 2512733 4672251
- 5536560 5318822 4243392 1626996 9205089 9863131  831374 9048235 4389244
- 4016061 4400674 9440683 1964469  694265 8772699 9317234 8300409 5853938
+ 5536560 5318822 4243392 1626996 9863131 9205089  831374 9048235 4389244
+ 4016061 9440683 4400674 1964469  694265 8772699 9317234 8300409 5853938
  7675478 8298129 3132593 7978586 3223796   98555 4273011 9432534 5088444
  8910364 7304429 6463831 8983268 9333032 7640547 4048184 9378200 8816646
  9345757 3473397 9507762 4255406 3258767 6101011 8635301 4908280 5366744
  8044188 6367068 9292655 5285294 9288359 5779111 6383734 1734228 6735471
  6819034 7442991 1055311 2681943 2150469 8076379 6160326 7143885 8590542
- 2527370 2775299 7226531 1748533 7863329 2232565 3918942 9666175 9596329
+ 2527370 2775299 7226531 7863329 1748533 2232565 3918942 9666175 9596329
  7301465]</t>
         </is>
       </c>
@@ -11497,7 +11497,7 @@
  0.7207 0.7217 0.7224 0.7231 0.724  0.725  0.7262 0.7272 0.728  0.7293
  0.7303 0.7306 0.7315 0.7319 0.7323 0.7323 0.7338 0.734  0.7347 0.7355
  0.7371 0.7376 0.7379 0.7383 0.7388 0.7389 0.7392 0.7392 0.7393 0.7395
- 0.7397 0.74   0.7406 0.7406 0.7409 0.7412 0.7431 0.7443 0.7444 0.7445
+ 0.7397 0.74   0.7406 0.7406 0.7409 0.7412 0.7432 0.7443 0.7444 0.7445
  0.7447 0.7447 0.7451 0.7452 0.7454 0.7459 0.7459 0.7467 0.747  0.7472
  0.7476 0.7478 0.7481 0.7481 0.7482 0.7491 0.7496 0.7501 0.7501 0.7502
  0.7507 0.7516 0.7517 0.7518 0.7518 0.7525 0.753  0.7535 0.7541 0.7542
@@ -12534,7 +12534,7 @@
  7551600 7542484 4329108   63500 7797533 2061787 5276199 4006427 5576060
  8578573 2976227 8293199 1245415 5485704 7457332 9394612 4710319 5576456
  4100693 9411429 3455128 5151386 4746575 4629914 5942992 9534980  435101
-  518884 3826721 5959202  805910 8184837 9610745 4126203 2308625 9039333
+  518884 3826721  805910 5959202 8184837 9610745 4126203 2308625 9039333
  9501158 7360633 8101270 4530600 7559778 4478730 5255972 5918703 8341021
   675689 6744995 2331202 2679778  836629 3170947 4332851 7333659 4377992
  4168425]</t>
@@ -18143,7 +18143,7 @@
       <c r="C507" t="inlineStr">
         <is>
           <t>[0.5997 0.642  0.645  0.645  0.6504 0.6514 0.6602 0.6647 0.666  0.669
- 0.6814 0.6817 0.6826 0.6878 0.6965 0.6986 0.6993 0.7007 0.7018 0.7039
+ 0.6814 0.6817 0.6826 0.6878 0.6965 0.6985 0.6993 0.7007 0.7018 0.7039
  0.7049 0.7049 0.7051 0.7062 0.7065 0.7079 0.7097 0.7108 0.7119 0.714
  0.7141 0.7142 0.7187 0.7192 0.7212 0.7214 0.7244 0.7256 0.726  0.7273
  0.7274 0.7318 0.7321 0.7329 0.7345 0.735  0.737  0.7374 0.7375 0.7392
@@ -21927,7 +21927,7 @@
  0.6009 0.6026 0.6036 0.6037 0.6039 0.6062 0.6073 0.6076 0.609  0.61
  0.6102 0.6104 0.6109 0.6113 0.6116 0.6135 0.6146 0.6151 0.6161 0.6163
  0.6172 0.6181 0.6214 0.6215 0.6216 0.6228 0.6234 0.624  0.6249 0.6255
- 0.6255 0.6266 0.6292 0.6295 0.6297 0.63   0.6302 0.6305 0.6314 0.6316
+ 0.6255 0.6266 0.6292 0.6295 0.6297 0.63   0.6302 0.6304 0.6314 0.6316
  0.6318 0.6321 0.6323 0.6324 0.6324 0.6326 0.6334 0.6336 0.6337 0.6349
  0.6357 0.6357 0.6361 0.6362 0.6363 0.6366 0.637  0.6372 0.6376 0.638
  0.6384 0.6386 0.6389 0.6391 0.6395 0.6406 0.6409 0.6418 0.6419 0.6419
@@ -22439,7 +22439,7 @@
  1457019 6497243 5192069 2874702 7438348  199585 8995273 8180868 3416644
  4546476 8387700 8934065  100502 9137855  208718 6182688 2652428 4473571
  8960017 7178751 7514243 6462044 5155676 9323666 1274574 9860276 1730480
- 3247830 7815348 6429314 6582025 1891973 8307893 2182742 7190836 1918461
+ 3247830 6429314 7815348 6582025 1891973 8307893 2182742 7190836 1918461
   702588 5555005 6062199 4454112 7363162 2274087 7737355 7346992 4151357
  3988279 6875765 6447892 4560146 3980346 9650772 9853115 7774985 9870431
  7468305]</t>
@@ -22456,7 +22456,7 @@
  0.6611 0.6611 0.6613 0.6622 0.6623 0.6624 0.6631 0.6634 0.6636 0.6638
  0.6645 0.6647 0.6649 0.6654 0.6654 0.6654 0.6656 0.666  0.6662 0.6664
  0.6666 0.667  0.6675 0.6676 0.6681 0.6686 0.669  0.67   0.67   0.67
- 0.6701 0.6709 0.6713 0.6713 0.6714 0.6717 0.6717 0.672  0.6721 0.6722]</t>
+ 0.6701 0.6709 0.6713 0.6714 0.6714 0.6717 0.6717 0.672  0.6721 0.6722]</t>
         </is>
       </c>
     </row>
@@ -22615,9 +22615,9 @@
   377756 4327149  808974 6321612 2170116 8783448 1838381 5616854   24113
  1069454 5728951 6229344 5202604 2943036 6876353 3230023  465241 9611593
  4418490  119531  720306 4364819 6420148 6415672 5290422 8031208 5743597
- 9976398 5356598 7135780 2463749  187679 5102318  160395 2214794 3115436
- 3214867 3263510 8227903 8799671 2844325 5389653 6507752 2154998 8556766
-   36239]</t>
+ 9976398 5356598 7135780 2463749  187679 5102318 2214794  160395 8799671
+ 8227903 3263510 3214867 3115436 2844325 5389653 6507752 2154998 8556766
+ 9688839]</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
@@ -23156,7 +23156,7 @@
  0.3471 0.3472 0.3472 0.3476 0.3477 0.3478 0.3482 0.3488 0.3491 0.3494
  0.3497 0.3499 0.35   0.3502 0.3503 0.3504 0.3505 0.3506 0.351  0.3516
  0.3516 0.3518 0.3519 0.3525 0.3525 0.353  0.3532 0.3532 0.3532 0.3532
- 0.3533 0.3537 0.3538 0.3539 0.354  0.3543 0.3544 0.3545 0.3546 0.3552]</t>
+ 0.3533 0.3537 0.3538 0.3539 0.354  0.3543 0.3545 0.3545 0.3546 0.3552]</t>
         </is>
       </c>
     </row>
@@ -27001,7 +27001,7 @@
  0.6923 0.6927 0.695  0.7017 0.7125 0.714  0.7145 0.7163 0.7177 0.7178
  0.7188 0.7188 0.7204 0.7206 0.7208 0.7219 0.7219 0.7221 0.7229 0.7252
  0.7256 0.7259 0.7293 0.7304 0.7349 0.735  0.7356 0.7364 0.7368 0.7376
- 0.7378 0.7383 0.7385 0.7385 0.7399 0.7399 0.7401 0.7407 0.741  0.7414
+ 0.7378 0.7383 0.7385 0.7385 0.7399 0.7399 0.7401 0.7407 0.7411 0.7414
  0.7427 0.7431 0.7436 0.7443 0.7451 0.7455 0.7465 0.7466 0.7469 0.7469
  0.7476 0.7476 0.748  0.7483 0.7485 0.7485 0.7488 0.7488 0.7491 0.7492
  0.7492 0.7494 0.7495 0.7495 0.7498 0.7503 0.7508 0.7509 0.7518 0.752
@@ -34391,7 +34391,7 @@
  0.8863 0.8864 0.8865 0.8865 0.887  0.8872 0.8873 0.8877 0.8878 0.8882
  0.8883 0.8885 0.8887 0.8893 0.8895 0.8897 0.8897 0.8898 0.8902 0.8903
  0.8904 0.8914 0.8916 0.8917 0.8918 0.8918 0.892  0.892  0.8927 0.8939
- 0.8941 0.8941 0.8942 0.8946 0.8947 0.8953 0.8953 0.8956 0.8957 0.8957]</t>
+ 0.8941 0.8942 0.8942 0.8946 0.8947 0.8953 0.8953 0.8956 0.8957 0.8957]</t>
         </is>
       </c>
     </row>
